--- a/biology/Botanique/Parc_national_de_Méotide/Parc_national_de_Méotide.xlsx
+++ b/biology/Botanique/Parc_national_de_Méotide/Parc_national_de_Méotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_de_M%C3%A9otide</t>
+          <t>Parc_national_de_Méotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel national de Méotide (en ukrainien : Hаціональний природний парк « Меотида ») est un parc national de 207 km2 situé dans l’oblast de Donetsk à l'est de l’Ukraine.
 Le parc tient son nom de la province historique de Méotide, nom du Donbass avant l'ère soviétique, qui provient du peuple antique des Méotes et entoure les rivières Taratiouk et Temriouk, en amont du fleuve Berda.
-Le parc national a été créé en 25 décembre 2009 par décret présidentiel pour protéger la faune et la flore de cette portion de la steppe pontique. Il englobe un parc régional créé le 30 juin 2000 et agrandi le 2 janvier 2022[2]. Depuis 2022, il est sous administration russe.
+Le parc national a été créé en 25 décembre 2009 par décret présidentiel pour protéger la faune et la flore de cette portion de la steppe pontique. Il englobe un parc régional créé le 30 juin 2000 et agrandi le 2 janvier 2022. Depuis 2022, il est sous administration russe.
 			Goéland pontique Larus cachinnans
-			Pêcherie sur les rives de la mer d'Azov, classée[3]
+			Pêcherie sur les rives de la mer d'Azov, classée
 			Steppe pontique.
 			Liman asséché de Krivokoskiy.
-			Forêt de pins, classée[4].
+			Forêt de pins, classée.
 			Lieu-dit « La steppe des Polovtses ».
 </t>
         </is>
